--- a/vyz/hse/tables/moscow/Актер.xlsx
+++ b/vyz/hse/tables/moscow/Актер.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="256">
   <si>
     <t>Образовательная программа "Актер"</t>
   </si>
@@ -46,7 +46,7 @@
     <t>Количество платных мест:</t>
   </si>
   <si>
-    <t>Время формирования: 19.07.2022 19:00:42</t>
+    <t>Время формирования: 26.07.2022 15:03:14</t>
   </si>
   <si>
     <t>Результаты, зачтенные по Олимпиадам школьников</t>
@@ -208,16 +208,22 @@
     <t>8</t>
   </si>
   <si>
+    <t>185-841-042 89</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>166-155-162 66</t>
   </si>
   <si>
     <t>90</t>
   </si>
   <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>9</t>
+    <t>10</t>
   </si>
   <si>
     <t>185-457-830 13</t>
@@ -229,7 +235,7 @@
     <t>180</t>
   </si>
   <si>
-    <t>10</t>
+    <t>11</t>
   </si>
   <si>
     <t>131-065-421 06</t>
@@ -238,7 +244,7 @@
     <t>176</t>
   </si>
   <si>
-    <t>11</t>
+    <t>12</t>
   </si>
   <si>
     <t>187-858-425 46</t>
@@ -247,7 +253,7 @@
     <t>86</t>
   </si>
   <si>
-    <t>12</t>
+    <t>13</t>
   </si>
   <si>
     <t>169-755-311 17</t>
@@ -259,7 +265,7 @@
     <t>175</t>
   </si>
   <si>
-    <t>13</t>
+    <t>14</t>
   </si>
   <si>
     <t>186-817-416 14</t>
@@ -271,7 +277,7 @@
     <t>174</t>
   </si>
   <si>
-    <t>14</t>
+    <t>15</t>
   </si>
   <si>
     <t>167-295-986 30</t>
@@ -280,25 +286,25 @@
     <t>173</t>
   </si>
   <si>
-    <t>15</t>
+    <t>16</t>
   </si>
   <si>
     <t>168-138-204 75</t>
   </si>
   <si>
-    <t>16</t>
+    <t>17</t>
   </si>
   <si>
     <t>162-468-721 82</t>
   </si>
   <si>
-    <t>17</t>
+    <t>18</t>
   </si>
   <si>
     <t>164-315-820 55</t>
   </si>
   <si>
-    <t>18</t>
+    <t>19</t>
   </si>
   <si>
     <t>188-314-417 88</t>
@@ -307,7 +313,7 @@
     <t>172</t>
   </si>
   <si>
-    <t>19</t>
+    <t>20</t>
   </si>
   <si>
     <t>144-336-260 43</t>
@@ -319,7 +325,7 @@
     <t>171</t>
   </si>
   <si>
-    <t>20</t>
+    <t>21</t>
   </si>
   <si>
     <t>169-717-754 28</t>
@@ -328,7 +334,7 @@
     <t>73</t>
   </si>
   <si>
-    <t>21</t>
+    <t>22</t>
   </si>
   <si>
     <t>190-517-947 85</t>
@@ -337,7 +343,7 @@
     <t>169</t>
   </si>
   <si>
-    <t>22</t>
+    <t>23</t>
   </si>
   <si>
     <t>167-685-633 27</t>
@@ -346,7 +352,7 @@
     <t>168</t>
   </si>
   <si>
-    <t>23</t>
+    <t>24</t>
   </si>
   <si>
     <t>199-216-161 00</t>
@@ -355,7 +361,7 @@
     <t>167</t>
   </si>
   <si>
-    <t>24</t>
+    <t>25</t>
   </si>
   <si>
     <t>164-122-325 26</t>
@@ -364,7 +370,7 @@
     <t>164</t>
   </si>
   <si>
-    <t>25</t>
+    <t>26</t>
   </si>
   <si>
     <t>200-868-347 51</t>
@@ -373,16 +379,25 @@
     <t>163</t>
   </si>
   <si>
-    <t>26</t>
+    <t>27</t>
+  </si>
+  <si>
+    <t>169-848-273 41</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>28</t>
   </si>
   <si>
     <t>184-575-854 22</t>
   </si>
   <si>
-    <t>162</t>
-  </si>
-  <si>
-    <t>27</t>
+    <t>29</t>
   </si>
   <si>
     <t>198</t>
@@ -391,7 +406,7 @@
     <t>160</t>
   </si>
   <si>
-    <t>28</t>
+    <t>30</t>
   </si>
   <si>
     <t>166-467-088 03</t>
@@ -400,28 +415,25 @@
     <t>78</t>
   </si>
   <si>
-    <t>29</t>
+    <t>31</t>
   </si>
   <si>
     <t>203-948-914 77</t>
   </si>
   <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>30</t>
+    <t>32</t>
   </si>
   <si>
     <t>202-580-433 22</t>
   </si>
   <si>
-    <t>31</t>
+    <t>33</t>
   </si>
   <si>
     <t>169-538-340 12</t>
   </si>
   <si>
-    <t>32</t>
+    <t>34</t>
   </si>
   <si>
     <t>133-278-503 50</t>
@@ -430,7 +442,16 @@
     <t>68</t>
   </si>
   <si>
-    <t>33</t>
+    <t>35</t>
+  </si>
+  <si>
+    <t>165-653-517 88</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>36</t>
   </si>
   <si>
     <t>13099</t>
@@ -439,7 +460,7 @@
     <t>157</t>
   </si>
   <si>
-    <t>34</t>
+    <t>37</t>
   </si>
   <si>
     <t>201-174-180 00</t>
@@ -448,7 +469,19 @@
     <t>155</t>
   </si>
   <si>
-    <t>35</t>
+    <t>38</t>
+  </si>
+  <si>
+    <t>144-921-280 58</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>39</t>
   </si>
   <si>
     <t>159-355-699 18</t>
@@ -457,7 +490,7 @@
     <t>151</t>
   </si>
   <si>
-    <t>36</t>
+    <t>40</t>
   </si>
   <si>
     <t>162-090-640 41</t>
@@ -469,7 +502,7 @@
     <t>150</t>
   </si>
   <si>
-    <t>37</t>
+    <t>41</t>
   </si>
   <si>
     <t>188-609-317 17</t>
@@ -481,13 +514,25 @@
     <t>149</t>
   </si>
   <si>
-    <t>38</t>
+    <t>42</t>
   </si>
   <si>
     <t>187-212-498 84</t>
   </si>
   <si>
-    <t>39</t>
+    <t>43</t>
+  </si>
+  <si>
+    <t>137-435-963 82</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>44</t>
   </si>
   <si>
     <t>191-594-429 02</t>
@@ -496,10 +541,7 @@
     <t>72</t>
   </si>
   <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>40</t>
+    <t>45</t>
   </si>
   <si>
     <t>152-148-675 57</t>
@@ -511,118 +553,112 @@
     <t>147</t>
   </si>
   <si>
-    <t>41</t>
+    <t>46</t>
   </si>
   <si>
     <t>145-219-951 66</t>
   </si>
   <si>
-    <t>70</t>
-  </si>
-  <si>
     <t>76</t>
   </si>
   <si>
     <t>146</t>
   </si>
   <si>
-    <t>42</t>
+    <t>47</t>
   </si>
   <si>
     <t>202-597-951 72</t>
   </si>
   <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>161-828-549 85</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>192-130-056 31</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>197-993-011 42</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>184-766-445 20</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>168-759-966 59</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>188-447-665 34</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>201-131-193 74</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>206-636-109 46</t>
+  </si>
+  <si>
     <t>57</t>
   </si>
   <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>161-828-549 85</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>192-130-056 31</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>197-993-011 42</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>184-766-445 20</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>168-759-966 59</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>188-447-665 34</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>201-131-193 74</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>206-636-109 46</t>
-  </si>
-  <si>
-    <t>51</t>
+    <t>56</t>
   </si>
   <si>
     <t>174-544-769 00</t>
   </si>
   <si>
-    <t>52</t>
-  </si>
-  <si>
     <t>199-330-550 00</t>
   </si>
   <si>
     <t>71</t>
   </si>
   <si>
-    <t>53</t>
+    <t>160-037-421 16</t>
+  </si>
+  <si>
+    <t>59</t>
   </si>
   <si>
     <t>161-121-962 24</t>
@@ -631,13 +667,10 @@
     <t>135</t>
   </si>
   <si>
-    <t>54</t>
-  </si>
-  <si>
     <t>171-994-502 02</t>
   </si>
   <si>
-    <t>55</t>
+    <t>61</t>
   </si>
   <si>
     <t>184-302-288 56</t>
@@ -646,28 +679,22 @@
     <t>134</t>
   </si>
   <si>
-    <t>56</t>
-  </si>
-  <si>
     <t>197-674-336 36</t>
   </si>
   <si>
+    <t>188-550-771 18</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
     <t>204-047-799 41</t>
   </si>
   <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>188-550-771 18</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>59</t>
+    <t>65</t>
   </si>
   <si>
     <t>186-793-212 22</t>
@@ -685,46 +712,46 @@
     <t>128</t>
   </si>
   <si>
-    <t>61</t>
-  </si>
-  <si>
     <t>184-661-621 93</t>
   </si>
   <si>
     <t>127</t>
   </si>
   <si>
+    <t>154-525-973 80</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
     <t>157-940-963 12</t>
   </si>
   <si>
-    <t>125</t>
-  </si>
-  <si>
     <t>186-056-064 79</t>
   </si>
   <si>
     <t>124</t>
   </si>
   <si>
+    <t>186-060-858 86</t>
+  </si>
+  <si>
     <t>189-211-940 91</t>
   </si>
   <si>
     <t>123</t>
   </si>
   <si>
-    <t>65</t>
-  </si>
-  <si>
     <t>191-566-361 93</t>
   </si>
   <si>
     <t>120</t>
   </si>
   <si>
-    <t>160-037-421 16</t>
-  </si>
-  <si>
-    <t>116</t>
+    <t>74</t>
   </si>
   <si>
     <t>191-668-500 00</t>
@@ -733,34 +760,28 @@
     <t>101</t>
   </si>
   <si>
+    <t>75</t>
+  </si>
+  <si>
     <t>159-677-428 33</t>
   </si>
   <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>165-653-517 88</t>
-  </si>
-  <si>
     <t>159-749-976 55</t>
   </si>
   <si>
+    <t>156-173-578 80</t>
+  </si>
+  <si>
     <t>138-229-914 79</t>
   </si>
   <si>
+    <t>79</t>
+  </si>
+  <si>
     <t>215-785-621 85</t>
   </si>
   <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>186-060-858 86</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>185-841-042 89</t>
+    <t>81</t>
   </si>
   <si>
     <t>185-617-956 18</t>
@@ -769,19 +790,7 @@
     <t>159-393-780 22</t>
   </si>
   <si>
-    <t>156-173-578 80</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>154-525-973 80</t>
-  </si>
-  <si>
-    <t>144-921-280 58</t>
-  </si>
-  <si>
-    <t>81</t>
+    <t>83</t>
   </si>
   <si>
     <t>144-521-892 56</t>
@@ -1000,7 +1009,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" fontId="0" applyAlignment="true">
       <alignment horizontal="left"/>
@@ -1101,6 +1110,15 @@
     <xf numFmtId="0" fontId="3" borderId="10" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1120,7 +1138,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="BT99"/>
+  <dimension ref="BT101"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -1986,17 +2004,17 @@
       <c r="O25" s="29" t="e"/>
       <c r="P25" s="30" t="e"/>
       <c r="Q25" s="27" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="R25" s="27" t="e"/>
       <c r="S25" s="27" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="T25" s="27" t="e"/>
       <c r="U25" s="31" t="e"/>
       <c r="V25" s="32" t="e"/>
       <c r="W25" s="33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X25" s="33" t="e"/>
       <c r="Y25" s="33" t="s">
@@ -2008,7 +2026,7 @@
       </c>
       <c r="AB25" s="33" t="e"/>
       <c r="AC25" s="33" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="AD25" s="33" t="e"/>
       <c r="AE25" s="33" t="s">
@@ -2026,11 +2044,11 @@
     </row>
     <row r="26" ht="13" customHeight="true" outlineLevel="1">
       <c r="A26" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B26" s="27" t="e"/>
       <c r="C26" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D26" s="28" t="e"/>
       <c r="E26" s="27" t="s">
@@ -2054,17 +2072,17 @@
       <c r="O26" s="29" t="e"/>
       <c r="P26" s="30" t="e"/>
       <c r="Q26" s="27" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="R26" s="27" t="e"/>
       <c r="S26" s="27" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="T26" s="27" t="e"/>
       <c r="U26" s="31" t="e"/>
       <c r="V26" s="32" t="e"/>
       <c r="W26" s="33" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="X26" s="33" t="e"/>
       <c r="Y26" s="33" t="s">
@@ -2076,7 +2094,7 @@
       </c>
       <c r="AB26" s="33" t="e"/>
       <c r="AC26" s="33" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="AD26" s="33" t="e"/>
       <c r="AE26" s="33" t="s">
@@ -2094,11 +2112,11 @@
     </row>
     <row r="27" ht="13" customHeight="true" outlineLevel="1">
       <c r="A27" s="27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B27" s="27" t="e"/>
       <c r="C27" s="28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D27" s="28" t="e"/>
       <c r="E27" s="27" t="s">
@@ -2122,19 +2140,17 @@
       <c r="O27" s="29" t="e"/>
       <c r="P27" s="30" t="e"/>
       <c r="Q27" s="27" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="R27" s="27" t="e"/>
       <c r="S27" s="27" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="T27" s="27" t="e"/>
-      <c r="U27" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="V27" s="33" t="e"/>
+      <c r="U27" s="31" t="e"/>
+      <c r="V27" s="32" t="e"/>
       <c r="W27" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X27" s="33" t="e"/>
       <c r="Y27" s="33" t="s">
@@ -2164,11 +2180,11 @@
     </row>
     <row r="28" ht="13" customHeight="true" outlineLevel="1">
       <c r="A28" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B28" s="27" t="e"/>
       <c r="C28" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D28" s="28" t="e"/>
       <c r="E28" s="27" t="s">
@@ -2196,15 +2212,15 @@
       </c>
       <c r="R28" s="27" t="e"/>
       <c r="S28" s="27" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="T28" s="27" t="e"/>
       <c r="U28" s="33" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="V28" s="33" t="e"/>
       <c r="W28" s="33" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="X28" s="33" t="e"/>
       <c r="Y28" s="33" t="s">
@@ -2224,7 +2240,7 @@
       </c>
       <c r="AF28" s="33" t="e"/>
       <c r="AG28" s="33" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="AH28" s="33" t="e"/>
       <c r="AI28" s="33" t="s">
@@ -2234,11 +2250,11 @@
     </row>
     <row r="29" ht="13" customHeight="true" outlineLevel="1">
       <c r="A29" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B29" s="27" t="e"/>
       <c r="C29" s="28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D29" s="28" t="e"/>
       <c r="E29" s="27" t="s">
@@ -2262,17 +2278,19 @@
       <c r="O29" s="29" t="e"/>
       <c r="P29" s="30" t="e"/>
       <c r="Q29" s="27" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="R29" s="27" t="e"/>
       <c r="S29" s="27" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="T29" s="27" t="e"/>
-      <c r="U29" s="31" t="e"/>
-      <c r="V29" s="32" t="e"/>
+      <c r="U29" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="V29" s="33" t="e"/>
       <c r="W29" s="33" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="X29" s="33" t="e"/>
       <c r="Y29" s="33" t="s">
@@ -2284,7 +2302,7 @@
       </c>
       <c r="AB29" s="33" t="e"/>
       <c r="AC29" s="33" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="AD29" s="33" t="e"/>
       <c r="AE29" s="33" t="s">
@@ -2292,7 +2310,7 @@
       </c>
       <c r="AF29" s="33" t="e"/>
       <c r="AG29" s="33" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="AH29" s="33" t="e"/>
       <c r="AI29" s="33" t="s">
@@ -2302,11 +2320,11 @@
     </row>
     <row r="30" ht="13" customHeight="true" outlineLevel="1">
       <c r="A30" s="27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B30" s="27" t="e"/>
       <c r="C30" s="28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D30" s="28" t="e"/>
       <c r="E30" s="27" t="s">
@@ -2330,17 +2348,17 @@
       <c r="O30" s="29" t="e"/>
       <c r="P30" s="30" t="e"/>
       <c r="Q30" s="27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R30" s="27" t="e"/>
       <c r="S30" s="27" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="T30" s="27" t="e"/>
       <c r="U30" s="31" t="e"/>
       <c r="V30" s="32" t="e"/>
       <c r="W30" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="X30" s="33" t="e"/>
       <c r="Y30" s="33" t="s">
@@ -2370,11 +2388,11 @@
     </row>
     <row r="31" ht="13" customHeight="true" outlineLevel="1">
       <c r="A31" s="27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B31" s="27" t="e"/>
       <c r="C31" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D31" s="28" t="e"/>
       <c r="E31" s="27" t="s">
@@ -2398,17 +2416,17 @@
       <c r="O31" s="29" t="e"/>
       <c r="P31" s="30" t="e"/>
       <c r="Q31" s="27" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="R31" s="27" t="e"/>
       <c r="S31" s="27" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="T31" s="27" t="e"/>
       <c r="U31" s="31" t="e"/>
       <c r="V31" s="32" t="e"/>
       <c r="W31" s="33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X31" s="33" t="e"/>
       <c r="Y31" s="33" t="s">
@@ -2438,11 +2456,11 @@
     </row>
     <row r="32" ht="13" customHeight="true" outlineLevel="1">
       <c r="A32" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B32" s="27" t="e"/>
       <c r="C32" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D32" s="28" t="e"/>
       <c r="E32" s="27" t="s">
@@ -2466,17 +2484,17 @@
       <c r="O32" s="29" t="e"/>
       <c r="P32" s="30" t="e"/>
       <c r="Q32" s="27" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="R32" s="27" t="e"/>
       <c r="S32" s="27" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="T32" s="27" t="e"/>
       <c r="U32" s="31" t="e"/>
       <c r="V32" s="32" t="e"/>
       <c r="W32" s="33" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="X32" s="33" t="e"/>
       <c r="Y32" s="33" t="s">
@@ -2496,7 +2514,7 @@
       </c>
       <c r="AF32" s="33" t="e"/>
       <c r="AG32" s="33" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="AH32" s="33" t="e"/>
       <c r="AI32" s="33" t="s">
@@ -2534,17 +2552,17 @@
       <c r="O33" s="29" t="e"/>
       <c r="P33" s="30" t="e"/>
       <c r="Q33" s="27" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="R33" s="27" t="e"/>
       <c r="S33" s="27" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="T33" s="27" t="e"/>
       <c r="U33" s="31" t="e"/>
       <c r="V33" s="32" t="e"/>
       <c r="W33" s="33" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="X33" s="33" t="e"/>
       <c r="Y33" s="33" t="s">
@@ -2556,7 +2574,7 @@
       </c>
       <c r="AB33" s="33" t="e"/>
       <c r="AC33" s="33" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="AD33" s="33" t="e"/>
       <c r="AE33" s="33" t="s">
@@ -2564,7 +2582,7 @@
       </c>
       <c r="AF33" s="33" t="e"/>
       <c r="AG33" s="33" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="AH33" s="33" t="e"/>
       <c r="AI33" s="33" t="s">
@@ -2602,17 +2620,17 @@
       <c r="O34" s="29" t="e"/>
       <c r="P34" s="30" t="e"/>
       <c r="Q34" s="27" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="R34" s="27" t="e"/>
       <c r="S34" s="27" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="T34" s="27" t="e"/>
       <c r="U34" s="31" t="e"/>
       <c r="V34" s="32" t="e"/>
       <c r="W34" s="33" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="X34" s="33" t="e"/>
       <c r="Y34" s="33" t="s">
@@ -2624,7 +2642,7 @@
       </c>
       <c r="AB34" s="33" t="e"/>
       <c r="AC34" s="33" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="AD34" s="33" t="e"/>
       <c r="AE34" s="33" t="s">
@@ -2670,19 +2688,17 @@
       <c r="O35" s="29" t="e"/>
       <c r="P35" s="30" t="e"/>
       <c r="Q35" s="27" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="R35" s="27" t="e"/>
       <c r="S35" s="27" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="T35" s="27" t="e"/>
-      <c r="U35" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="V35" s="33" t="e"/>
+      <c r="U35" s="31" t="e"/>
+      <c r="V35" s="32" t="e"/>
       <c r="W35" s="33" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="X35" s="33" t="e"/>
       <c r="Y35" s="33" t="s">
@@ -2712,11 +2728,11 @@
     </row>
     <row r="36" ht="13" customHeight="true" outlineLevel="1">
       <c r="A36" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B36" s="27" t="e"/>
       <c r="C36" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D36" s="28" t="e"/>
       <c r="E36" s="27" t="s">
@@ -2740,17 +2756,19 @@
       <c r="O36" s="29" t="e"/>
       <c r="P36" s="30" t="e"/>
       <c r="Q36" s="27" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="R36" s="27" t="e"/>
       <c r="S36" s="27" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T36" s="27" t="e"/>
-      <c r="U36" s="31" t="e"/>
-      <c r="V36" s="32" t="e"/>
+      <c r="U36" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="V36" s="33" t="e"/>
       <c r="W36" s="33" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="X36" s="33" t="e"/>
       <c r="Y36" s="33" t="s">
@@ -2780,11 +2798,11 @@
     </row>
     <row r="37" ht="13" customHeight="true" outlineLevel="1">
       <c r="A37" s="27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B37" s="27" t="e"/>
       <c r="C37" s="28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D37" s="28" t="e"/>
       <c r="E37" s="27" t="s">
@@ -2808,17 +2826,17 @@
       <c r="O37" s="29" t="e"/>
       <c r="P37" s="30" t="e"/>
       <c r="Q37" s="27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="R37" s="27" t="e"/>
       <c r="S37" s="27" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="T37" s="27" t="e"/>
       <c r="U37" s="31" t="e"/>
       <c r="V37" s="32" t="e"/>
       <c r="W37" s="33" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="X37" s="33" t="e"/>
       <c r="Y37" s="33" t="s">
@@ -2830,7 +2848,7 @@
       </c>
       <c r="AB37" s="33" t="e"/>
       <c r="AC37" s="33" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="AD37" s="33" t="e"/>
       <c r="AE37" s="33" t="s">
@@ -2848,11 +2866,11 @@
     </row>
     <row r="38" ht="13" customHeight="true" outlineLevel="1">
       <c r="A38" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B38" s="27" t="e"/>
       <c r="C38" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D38" s="28" t="e"/>
       <c r="E38" s="27" t="s">
@@ -2876,17 +2894,17 @@
       <c r="O38" s="29" t="e"/>
       <c r="P38" s="30" t="e"/>
       <c r="Q38" s="27" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="R38" s="27" t="e"/>
       <c r="S38" s="27" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="T38" s="27" t="e"/>
       <c r="U38" s="31" t="e"/>
       <c r="V38" s="32" t="e"/>
       <c r="W38" s="33" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="X38" s="33" t="e"/>
       <c r="Y38" s="33" t="s">
@@ -2916,11 +2934,11 @@
     </row>
     <row r="39" ht="13" customHeight="true" outlineLevel="1">
       <c r="A39" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B39" s="27" t="e"/>
       <c r="C39" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D39" s="28" t="e"/>
       <c r="E39" s="27" t="s">
@@ -2944,17 +2962,17 @@
       <c r="O39" s="29" t="e"/>
       <c r="P39" s="30" t="e"/>
       <c r="Q39" s="27" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="R39" s="27" t="e"/>
       <c r="S39" s="27" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="T39" s="27" t="e"/>
       <c r="U39" s="31" t="e"/>
       <c r="V39" s="32" t="e"/>
       <c r="W39" s="33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="X39" s="33" t="e"/>
       <c r="Y39" s="33" t="s">
@@ -2984,11 +3002,11 @@
     </row>
     <row r="40" ht="13" customHeight="true" outlineLevel="1">
       <c r="A40" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B40" s="27" t="e"/>
       <c r="C40" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D40" s="28" t="e"/>
       <c r="E40" s="27" t="s">
@@ -3012,17 +3030,17 @@
       <c r="O40" s="29" t="e"/>
       <c r="P40" s="30" t="e"/>
       <c r="Q40" s="27" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="R40" s="27" t="e"/>
       <c r="S40" s="27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="T40" s="27" t="e"/>
       <c r="U40" s="31" t="e"/>
       <c r="V40" s="32" t="e"/>
       <c r="W40" s="33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X40" s="33" t="e"/>
       <c r="Y40" s="33" t="s">
@@ -3052,11 +3070,11 @@
     </row>
     <row r="41" ht="13" customHeight="true" outlineLevel="1">
       <c r="A41" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B41" s="27" t="e"/>
       <c r="C41" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D41" s="28" t="e"/>
       <c r="E41" s="27" t="s">
@@ -3080,17 +3098,17 @@
       <c r="O41" s="29" t="e"/>
       <c r="P41" s="30" t="e"/>
       <c r="Q41" s="27" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R41" s="27" t="e"/>
       <c r="S41" s="27" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="T41" s="27" t="e"/>
       <c r="U41" s="31" t="e"/>
       <c r="V41" s="32" t="e"/>
       <c r="W41" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X41" s="33" t="e"/>
       <c r="Y41" s="33" t="s">
@@ -3120,11 +3138,11 @@
     </row>
     <row r="42" ht="13" customHeight="true" outlineLevel="1">
       <c r="A42" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B42" s="27" t="e"/>
       <c r="C42" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D42" s="28" t="e"/>
       <c r="E42" s="27" t="s">
@@ -3148,17 +3166,17 @@
       <c r="O42" s="29" t="e"/>
       <c r="P42" s="30" t="e"/>
       <c r="Q42" s="27" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="R42" s="27" t="e"/>
       <c r="S42" s="27" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="T42" s="27" t="e"/>
       <c r="U42" s="31" t="e"/>
       <c r="V42" s="32" t="e"/>
       <c r="W42" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="X42" s="33" t="e"/>
       <c r="Y42" s="33" t="s">
@@ -3188,11 +3206,11 @@
     </row>
     <row r="43" ht="13" customHeight="true" outlineLevel="1">
       <c r="A43" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B43" s="27" t="e"/>
       <c r="C43" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D43" s="28" t="e"/>
       <c r="E43" s="27" t="s">
@@ -3216,17 +3234,17 @@
       <c r="O43" s="29" t="e"/>
       <c r="P43" s="30" t="e"/>
       <c r="Q43" s="27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="R43" s="27" t="e"/>
       <c r="S43" s="27" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="T43" s="27" t="e"/>
       <c r="U43" s="31" t="e"/>
       <c r="V43" s="32" t="e"/>
       <c r="W43" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X43" s="33" t="e"/>
       <c r="Y43" s="33" t="s">
@@ -3256,11 +3274,11 @@
     </row>
     <row r="44" ht="13" customHeight="true" outlineLevel="1">
       <c r="A44" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B44" s="27" t="e"/>
       <c r="C44" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D44" s="28" t="e"/>
       <c r="E44" s="27" t="s">
@@ -3284,11 +3302,11 @@
       <c r="O44" s="29" t="e"/>
       <c r="P44" s="30" t="e"/>
       <c r="Q44" s="27" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="R44" s="27" t="e"/>
       <c r="S44" s="27" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="T44" s="27" t="e"/>
       <c r="U44" s="31" t="e"/>
@@ -3352,11 +3370,11 @@
       <c r="O45" s="29" t="e"/>
       <c r="P45" s="30" t="e"/>
       <c r="Q45" s="27" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="R45" s="27" t="e"/>
       <c r="S45" s="27" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="T45" s="27" t="e"/>
       <c r="U45" s="31" t="e"/>
@@ -3392,11 +3410,11 @@
     </row>
     <row r="46" ht="13" customHeight="true" outlineLevel="1">
       <c r="A46" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B46" s="27" t="e"/>
       <c r="C46" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D46" s="28" t="e"/>
       <c r="E46" s="27" t="s">
@@ -3420,19 +3438,17 @@
       <c r="O46" s="29" t="e"/>
       <c r="P46" s="30" t="e"/>
       <c r="Q46" s="27" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="R46" s="27" t="e"/>
       <c r="S46" s="27" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="T46" s="27" t="e"/>
-      <c r="U46" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="V46" s="33" t="e"/>
+      <c r="U46" s="31" t="e"/>
+      <c r="V46" s="32" t="e"/>
       <c r="W46" s="33" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="X46" s="33" t="e"/>
       <c r="Y46" s="33" t="s">
@@ -3462,11 +3478,11 @@
     </row>
     <row r="47" ht="13" customHeight="true" outlineLevel="1">
       <c r="A47" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B47" s="27" t="e"/>
       <c r="C47" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D47" s="28" t="e"/>
       <c r="E47" s="27" t="s">
@@ -3490,19 +3506,17 @@
       <c r="O47" s="29" t="e"/>
       <c r="P47" s="30" t="e"/>
       <c r="Q47" s="27" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="R47" s="27" t="e"/>
       <c r="S47" s="27" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="T47" s="27" t="e"/>
-      <c r="U47" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="V47" s="33" t="e"/>
+      <c r="U47" s="31" t="e"/>
+      <c r="V47" s="32" t="e"/>
       <c r="W47" s="33" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="X47" s="33" t="e"/>
       <c r="Y47" s="33" t="s">
@@ -3560,19 +3574,19 @@
       <c r="O48" s="29" t="e"/>
       <c r="P48" s="30" t="e"/>
       <c r="Q48" s="27" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="R48" s="27" t="e"/>
       <c r="S48" s="27" t="s">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="T48" s="27" t="e"/>
       <c r="U48" s="33" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="V48" s="33" t="e"/>
       <c r="W48" s="33" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="X48" s="33" t="e"/>
       <c r="Y48" s="33" t="s">
@@ -3630,19 +3644,19 @@
       <c r="O49" s="29" t="e"/>
       <c r="P49" s="30" t="e"/>
       <c r="Q49" s="27" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="R49" s="27" t="e"/>
       <c r="S49" s="27" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="T49" s="27" t="e"/>
       <c r="U49" s="33" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="V49" s="33" t="e"/>
       <c r="W49" s="33" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="X49" s="33" t="e"/>
       <c r="Y49" s="33" t="s">
@@ -3658,11 +3672,11 @@
       </c>
       <c r="AD49" s="33" t="e"/>
       <c r="AE49" s="33" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="AF49" s="33" t="e"/>
       <c r="AG49" s="33" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="AH49" s="33" t="e"/>
       <c r="AI49" s="33" t="s">
@@ -3672,11 +3686,11 @@
     </row>
     <row r="50" ht="13" customHeight="true" outlineLevel="1">
       <c r="A50" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B50" s="27" t="e"/>
       <c r="C50" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D50" s="28" t="e"/>
       <c r="E50" s="27" t="s">
@@ -3700,17 +3714,19 @@
       <c r="O50" s="29" t="e"/>
       <c r="P50" s="30" t="e"/>
       <c r="Q50" s="27" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="R50" s="27" t="e"/>
       <c r="S50" s="27" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="T50" s="27" t="e"/>
-      <c r="U50" s="31" t="e"/>
-      <c r="V50" s="32" t="e"/>
+      <c r="U50" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="V50" s="33" t="e"/>
       <c r="W50" s="33" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="X50" s="33" t="e"/>
       <c r="Y50" s="33" t="s">
@@ -3740,11 +3756,11 @@
     </row>
     <row r="51" ht="13" customHeight="true" outlineLevel="1">
       <c r="A51" s="27" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B51" s="27" t="e"/>
       <c r="C51" s="28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D51" s="28" t="e"/>
       <c r="E51" s="27" t="s">
@@ -3768,17 +3784,19 @@
       <c r="O51" s="29" t="e"/>
       <c r="P51" s="30" t="e"/>
       <c r="Q51" s="27" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="R51" s="27" t="e"/>
       <c r="S51" s="27" t="s">
         <v>46</v>
       </c>
       <c r="T51" s="27" t="e"/>
-      <c r="U51" s="31" t="e"/>
-      <c r="V51" s="32" t="e"/>
+      <c r="U51" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="V51" s="33" t="e"/>
       <c r="W51" s="33" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="X51" s="33" t="e"/>
       <c r="Y51" s="33" t="s">
@@ -3794,11 +3812,11 @@
       </c>
       <c r="AD51" s="33" t="e"/>
       <c r="AE51" s="33" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="AF51" s="33" t="e"/>
       <c r="AG51" s="33" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="AH51" s="33" t="e"/>
       <c r="AI51" s="33" t="s">
@@ -3808,11 +3826,11 @@
     </row>
     <row r="52" ht="13" customHeight="true" outlineLevel="1">
       <c r="A52" s="27" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B52" s="27" t="e"/>
       <c r="C52" s="28" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D52" s="28" t="e"/>
       <c r="E52" s="27" t="s">
@@ -3836,17 +3854,17 @@
       <c r="O52" s="29" t="e"/>
       <c r="P52" s="30" t="e"/>
       <c r="Q52" s="27" t="s">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="R52" s="27" t="e"/>
       <c r="S52" s="27" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="T52" s="27" t="e"/>
       <c r="U52" s="31" t="e"/>
       <c r="V52" s="32" t="e"/>
       <c r="W52" s="33" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="X52" s="33" t="e"/>
       <c r="Y52" s="33" t="s">
@@ -3876,11 +3894,11 @@
     </row>
     <row r="53" ht="13" customHeight="true" outlineLevel="1">
       <c r="A53" s="27" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B53" s="27" t="e"/>
       <c r="C53" s="28" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D53" s="28" t="e"/>
       <c r="E53" s="27" t="s">
@@ -3904,19 +3922,17 @@
       <c r="O53" s="29" t="e"/>
       <c r="P53" s="30" t="e"/>
       <c r="Q53" s="27" t="s">
-        <v>145</v>
+        <v>97</v>
       </c>
       <c r="R53" s="27" t="e"/>
       <c r="S53" s="27" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="T53" s="27" t="e"/>
-      <c r="U53" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="V53" s="33" t="e"/>
+      <c r="U53" s="31" t="e"/>
+      <c r="V53" s="32" t="e"/>
       <c r="W53" s="33" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="X53" s="33" t="e"/>
       <c r="Y53" s="33" t="s">
@@ -3936,7 +3952,7 @@
       </c>
       <c r="AF53" s="33" t="e"/>
       <c r="AG53" s="33" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="AH53" s="33" t="e"/>
       <c r="AI53" s="33" t="s">
@@ -3946,11 +3962,11 @@
     </row>
     <row r="54" ht="13" customHeight="true" outlineLevel="1">
       <c r="A54" s="27" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B54" s="27" t="e"/>
       <c r="C54" s="28" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D54" s="28" t="e"/>
       <c r="E54" s="27" t="s">
@@ -3974,17 +3990,17 @@
       <c r="O54" s="29" t="e"/>
       <c r="P54" s="30" t="e"/>
       <c r="Q54" s="27" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="R54" s="27" t="e"/>
       <c r="S54" s="27" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="T54" s="27" t="e"/>
       <c r="U54" s="31" t="e"/>
       <c r="V54" s="32" t="e"/>
       <c r="W54" s="33" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="X54" s="33" t="e"/>
       <c r="Y54" s="33" t="s">
@@ -3996,7 +4012,7 @@
       </c>
       <c r="AB54" s="33" t="e"/>
       <c r="AC54" s="33" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="AD54" s="33" t="e"/>
       <c r="AE54" s="33" t="s">
@@ -4014,11 +4030,11 @@
     </row>
     <row r="55" ht="13" customHeight="true" outlineLevel="1">
       <c r="A55" s="27" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B55" s="27" t="e"/>
       <c r="C55" s="28" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D55" s="28" t="e"/>
       <c r="E55" s="27" t="s">
@@ -4041,18 +4057,16 @@
       <c r="N55" s="30" t="e"/>
       <c r="O55" s="29" t="e"/>
       <c r="P55" s="30" t="e"/>
-      <c r="Q55" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="R55" s="27" t="e"/>
-      <c r="S55" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="T55" s="27" t="e"/>
-      <c r="U55" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="V55" s="33" t="e"/>
+      <c r="Q55" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="R55" s="34" t="e"/>
+      <c r="S55" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="T55" s="34" t="e"/>
+      <c r="U55" s="31" t="e"/>
+      <c r="V55" s="32" t="e"/>
       <c r="W55" s="33" t="s">
         <v>150</v>
       </c>
@@ -4084,11 +4098,11 @@
     </row>
     <row r="56" ht="13" customHeight="true" outlineLevel="1">
       <c r="A56" s="27" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B56" s="27" t="e"/>
       <c r="C56" s="28" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D56" s="28" t="e"/>
       <c r="E56" s="27" t="s">
@@ -4112,19 +4126,17 @@
       <c r="O56" s="29" t="e"/>
       <c r="P56" s="30" t="e"/>
       <c r="Q56" s="27" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="R56" s="27" t="e"/>
       <c r="S56" s="27" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="T56" s="27" t="e"/>
-      <c r="U56" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="V56" s="33" t="e"/>
+      <c r="U56" s="31" t="e"/>
+      <c r="V56" s="32" t="e"/>
       <c r="W56" s="33" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="X56" s="33" t="e"/>
       <c r="Y56" s="33" t="s">
@@ -4154,11 +4166,11 @@
     </row>
     <row r="57" ht="13" customHeight="true" outlineLevel="1">
       <c r="A57" s="27" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B57" s="27" t="e"/>
       <c r="C57" s="28" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D57" s="28" t="e"/>
       <c r="E57" s="27" t="s">
@@ -4182,17 +4194,19 @@
       <c r="O57" s="29" t="e"/>
       <c r="P57" s="30" t="e"/>
       <c r="Q57" s="27" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="R57" s="27" t="e"/>
       <c r="S57" s="27" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="T57" s="27" t="e"/>
-      <c r="U57" s="31" t="e"/>
-      <c r="V57" s="32" t="e"/>
+      <c r="U57" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="V57" s="33" t="e"/>
       <c r="W57" s="33" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="X57" s="33" t="e"/>
       <c r="Y57" s="33" t="s">
@@ -4212,7 +4226,7 @@
       </c>
       <c r="AF57" s="33" t="e"/>
       <c r="AG57" s="33" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="AH57" s="33" t="e"/>
       <c r="AI57" s="33" t="s">
@@ -4222,11 +4236,11 @@
     </row>
     <row r="58" ht="13" customHeight="true" outlineLevel="1">
       <c r="A58" s="27" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B58" s="27" t="e"/>
       <c r="C58" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D58" s="28" t="e"/>
       <c r="E58" s="27" t="s">
@@ -4250,17 +4264,17 @@
       <c r="O58" s="29" t="e"/>
       <c r="P58" s="30" t="e"/>
       <c r="Q58" s="27" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="R58" s="27" t="e"/>
       <c r="S58" s="27" t="s">
-        <v>164</v>
+        <v>42</v>
       </c>
       <c r="T58" s="27" t="e"/>
       <c r="U58" s="31" t="e"/>
       <c r="V58" s="32" t="e"/>
       <c r="W58" s="33" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="X58" s="33" t="e"/>
       <c r="Y58" s="33" t="s">
@@ -4290,11 +4304,11 @@
     </row>
     <row r="59" ht="13" customHeight="true" outlineLevel="1">
       <c r="A59" s="27" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B59" s="27" t="e"/>
       <c r="C59" s="28" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D59" s="28" t="e"/>
       <c r="E59" s="27" t="s">
@@ -4318,17 +4332,19 @@
       <c r="O59" s="29" t="e"/>
       <c r="P59" s="30" t="e"/>
       <c r="Q59" s="27" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="R59" s="27" t="e"/>
       <c r="S59" s="27" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="T59" s="27" t="e"/>
-      <c r="U59" s="31" t="e"/>
-      <c r="V59" s="32" t="e"/>
+      <c r="U59" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="V59" s="33" t="e"/>
       <c r="W59" s="33" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="X59" s="33" t="e"/>
       <c r="Y59" s="33" t="s">
@@ -4358,11 +4374,11 @@
     </row>
     <row r="60" ht="13" customHeight="true" outlineLevel="1">
       <c r="A60" s="27" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B60" s="27" t="e"/>
       <c r="C60" s="28" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D60" s="28" t="e"/>
       <c r="E60" s="27" t="s">
@@ -4386,17 +4402,17 @@
       <c r="O60" s="29" t="e"/>
       <c r="P60" s="30" t="e"/>
       <c r="Q60" s="27" t="s">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="R60" s="27" t="e"/>
       <c r="S60" s="27" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="T60" s="27" t="e"/>
       <c r="U60" s="31" t="e"/>
       <c r="V60" s="32" t="e"/>
       <c r="W60" s="33" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="X60" s="33" t="e"/>
       <c r="Y60" s="33" t="s">
@@ -4426,11 +4442,11 @@
     </row>
     <row r="61" ht="13" customHeight="true" outlineLevel="1">
       <c r="A61" s="27" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B61" s="27" t="e"/>
       <c r="C61" s="28" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D61" s="28" t="e"/>
       <c r="E61" s="27" t="s">
@@ -4454,17 +4470,19 @@
       <c r="O61" s="29" t="e"/>
       <c r="P61" s="30" t="e"/>
       <c r="Q61" s="27" t="s">
-        <v>175</v>
+        <v>101</v>
       </c>
       <c r="R61" s="27" t="e"/>
       <c r="S61" s="27" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="T61" s="27" t="e"/>
-      <c r="U61" s="31" t="e"/>
-      <c r="V61" s="32" t="e"/>
+      <c r="U61" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="V61" s="33" t="e"/>
       <c r="W61" s="33" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="X61" s="33" t="e"/>
       <c r="Y61" s="33" t="s">
@@ -4476,7 +4494,7 @@
       </c>
       <c r="AB61" s="33" t="e"/>
       <c r="AC61" s="33" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="AD61" s="33" t="e"/>
       <c r="AE61" s="33" t="s">
@@ -4494,11 +4512,11 @@
     </row>
     <row r="62" ht="13" customHeight="true" outlineLevel="1">
       <c r="A62" s="27" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B62" s="27" t="e"/>
       <c r="C62" s="28" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D62" s="28" t="e"/>
       <c r="E62" s="27" t="s">
@@ -4522,17 +4540,17 @@
       <c r="O62" s="29" t="e"/>
       <c r="P62" s="30" t="e"/>
       <c r="Q62" s="27" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="R62" s="27" t="e"/>
       <c r="S62" s="27" t="s">
-        <v>123</v>
+        <v>46</v>
       </c>
       <c r="T62" s="27" t="e"/>
       <c r="U62" s="31" t="e"/>
       <c r="V62" s="32" t="e"/>
       <c r="W62" s="33" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="X62" s="33" t="e"/>
       <c r="Y62" s="33" t="s">
@@ -4562,11 +4580,11 @@
     </row>
     <row r="63" ht="13" customHeight="true" outlineLevel="1">
       <c r="A63" s="27" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B63" s="27" t="e"/>
       <c r="C63" s="28" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D63" s="28" t="e"/>
       <c r="E63" s="27" t="s">
@@ -4590,17 +4608,17 @@
       <c r="O63" s="29" t="e"/>
       <c r="P63" s="30" t="e"/>
       <c r="Q63" s="27" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="R63" s="27" t="e"/>
       <c r="S63" s="27" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="T63" s="27" t="e"/>
       <c r="U63" s="31" t="e"/>
       <c r="V63" s="32" t="e"/>
       <c r="W63" s="33" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="X63" s="33" t="e"/>
       <c r="Y63" s="33" t="s">
@@ -4630,11 +4648,11 @@
     </row>
     <row r="64" ht="13" customHeight="true" outlineLevel="1">
       <c r="A64" s="27" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B64" s="27" t="e"/>
       <c r="C64" s="28" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D64" s="28" t="e"/>
       <c r="E64" s="27" t="s">
@@ -4658,17 +4676,17 @@
       <c r="O64" s="29" t="e"/>
       <c r="P64" s="30" t="e"/>
       <c r="Q64" s="27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="R64" s="27" t="e"/>
       <c r="S64" s="27" t="s">
-        <v>123</v>
+        <v>46</v>
       </c>
       <c r="T64" s="27" t="e"/>
       <c r="U64" s="31" t="e"/>
       <c r="V64" s="32" t="e"/>
       <c r="W64" s="33" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="X64" s="33" t="e"/>
       <c r="Y64" s="33" t="s">
@@ -4698,11 +4716,11 @@
     </row>
     <row r="65" ht="13" customHeight="true" outlineLevel="1">
       <c r="A65" s="27" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B65" s="27" t="e"/>
       <c r="C65" s="28" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D65" s="28" t="e"/>
       <c r="E65" s="27" t="s">
@@ -4726,17 +4744,17 @@
       <c r="O65" s="29" t="e"/>
       <c r="P65" s="30" t="e"/>
       <c r="Q65" s="27" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="R65" s="27" t="e"/>
       <c r="S65" s="27" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="T65" s="27" t="e"/>
       <c r="U65" s="31" t="e"/>
       <c r="V65" s="32" t="e"/>
       <c r="W65" s="33" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="X65" s="33" t="e"/>
       <c r="Y65" s="33" t="s">
@@ -4766,11 +4784,11 @@
     </row>
     <row r="66" ht="13" customHeight="true" outlineLevel="1">
       <c r="A66" s="27" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B66" s="27" t="e"/>
       <c r="C66" s="28" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D66" s="28" t="e"/>
       <c r="E66" s="27" t="s">
@@ -4794,17 +4812,17 @@
       <c r="O66" s="29" t="e"/>
       <c r="P66" s="30" t="e"/>
       <c r="Q66" s="27" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="R66" s="27" t="e"/>
       <c r="S66" s="27" t="s">
-        <v>99</v>
+        <v>177</v>
       </c>
       <c r="T66" s="27" t="e"/>
       <c r="U66" s="31" t="e"/>
       <c r="V66" s="32" t="e"/>
       <c r="W66" s="33" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="X66" s="33" t="e"/>
       <c r="Y66" s="33" t="s">
@@ -4834,11 +4852,11 @@
     </row>
     <row r="67" ht="13" customHeight="true" outlineLevel="1">
       <c r="A67" s="27" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B67" s="27" t="e"/>
       <c r="C67" s="28" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D67" s="28" t="e"/>
       <c r="E67" s="27" t="s">
@@ -4862,17 +4880,17 @@
       <c r="O67" s="29" t="e"/>
       <c r="P67" s="30" t="e"/>
       <c r="Q67" s="27" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="R67" s="27" t="e"/>
       <c r="S67" s="27" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="T67" s="27" t="e"/>
       <c r="U67" s="31" t="e"/>
       <c r="V67" s="32" t="e"/>
       <c r="W67" s="33" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="X67" s="33" t="e"/>
       <c r="Y67" s="33" t="s">
@@ -4902,11 +4920,11 @@
     </row>
     <row r="68" ht="13" customHeight="true" outlineLevel="1">
       <c r="A68" s="27" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B68" s="27" t="e"/>
       <c r="C68" s="28" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D68" s="28" t="e"/>
       <c r="E68" s="27" t="s">
@@ -4930,17 +4948,17 @@
       <c r="O68" s="29" t="e"/>
       <c r="P68" s="30" t="e"/>
       <c r="Q68" s="27" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="R68" s="27" t="e"/>
       <c r="S68" s="27" t="s">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c r="T68" s="27" t="e"/>
       <c r="U68" s="31" t="e"/>
       <c r="V68" s="32" t="e"/>
       <c r="W68" s="33" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="X68" s="33" t="e"/>
       <c r="Y68" s="33" t="s">
@@ -4970,11 +4988,11 @@
     </row>
     <row r="69" ht="13" customHeight="true" outlineLevel="1">
       <c r="A69" s="27" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B69" s="27" t="e"/>
       <c r="C69" s="28" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D69" s="28" t="e"/>
       <c r="E69" s="27" t="s">
@@ -4998,19 +5016,17 @@
       <c r="O69" s="29" t="e"/>
       <c r="P69" s="30" t="e"/>
       <c r="Q69" s="27" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="R69" s="27" t="e"/>
       <c r="S69" s="27" t="s">
-        <v>197</v>
+        <v>128</v>
       </c>
       <c r="T69" s="27" t="e"/>
-      <c r="U69" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="V69" s="33" t="e"/>
+      <c r="U69" s="31" t="e"/>
+      <c r="V69" s="32" t="e"/>
       <c r="W69" s="33" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="X69" s="33" t="e"/>
       <c r="Y69" s="33" t="s">
@@ -5022,7 +5038,7 @@
       </c>
       <c r="AB69" s="33" t="e"/>
       <c r="AC69" s="33" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="AD69" s="33" t="e"/>
       <c r="AE69" s="33" t="s">
@@ -5040,11 +5056,11 @@
     </row>
     <row r="70" ht="13" customHeight="true" outlineLevel="1">
       <c r="A70" s="27" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B70" s="27" t="e"/>
       <c r="C70" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D70" s="28" t="e"/>
       <c r="E70" s="27" t="s">
@@ -5068,17 +5084,17 @@
       <c r="O70" s="29" t="e"/>
       <c r="P70" s="30" t="e"/>
       <c r="Q70" s="27" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="R70" s="27" t="e"/>
       <c r="S70" s="27" t="s">
-        <v>57</v>
+        <v>198</v>
       </c>
       <c r="T70" s="27" t="e"/>
       <c r="U70" s="31" t="e"/>
       <c r="V70" s="32" t="e"/>
       <c r="W70" s="33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X70" s="33" t="e"/>
       <c r="Y70" s="33" t="s">
@@ -5108,11 +5124,11 @@
     </row>
     <row r="71" ht="13" customHeight="true" outlineLevel="1">
       <c r="A71" s="27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B71" s="27" t="e"/>
       <c r="C71" s="28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D71" s="28" t="e"/>
       <c r="E71" s="27" t="s">
@@ -5136,19 +5152,17 @@
       <c r="O71" s="29" t="e"/>
       <c r="P71" s="30" t="e"/>
       <c r="Q71" s="27" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="R71" s="27" t="e"/>
       <c r="S71" s="27" t="s">
-        <v>197</v>
+        <v>101</v>
       </c>
       <c r="T71" s="27" t="e"/>
-      <c r="U71" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="V71" s="33" t="e"/>
+      <c r="U71" s="31" t="e"/>
+      <c r="V71" s="32" t="e"/>
       <c r="W71" s="33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X71" s="33" t="e"/>
       <c r="Y71" s="33" t="s">
@@ -5178,11 +5192,11 @@
     </row>
     <row r="72" ht="13" customHeight="true" outlineLevel="1">
       <c r="A72" s="27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B72" s="27" t="e"/>
       <c r="C72" s="28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D72" s="28" t="e"/>
       <c r="E72" s="27" t="s">
@@ -5206,17 +5220,17 @@
       <c r="O72" s="29" t="e"/>
       <c r="P72" s="30" t="e"/>
       <c r="Q72" s="27" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="R72" s="27" t="e"/>
       <c r="S72" s="27" t="s">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="T72" s="27" t="e"/>
       <c r="U72" s="31" t="e"/>
       <c r="V72" s="32" t="e"/>
       <c r="W72" s="33" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="X72" s="33" t="e"/>
       <c r="Y72" s="33" t="s">
@@ -5246,11 +5260,11 @@
     </row>
     <row r="73" ht="13" customHeight="true" outlineLevel="1">
       <c r="A73" s="27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B73" s="27" t="e"/>
       <c r="C73" s="28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D73" s="28" t="e"/>
       <c r="E73" s="27" t="s">
@@ -5274,17 +5288,17 @@
       <c r="O73" s="29" t="e"/>
       <c r="P73" s="30" t="e"/>
       <c r="Q73" s="27" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="R73" s="27" t="e"/>
       <c r="S73" s="27" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="T73" s="27" t="e"/>
       <c r="U73" s="31" t="e"/>
       <c r="V73" s="32" t="e"/>
       <c r="W73" s="33" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="X73" s="33" t="e"/>
       <c r="Y73" s="33" t="s">
@@ -5314,11 +5328,11 @@
     </row>
     <row r="74" ht="13" customHeight="true" outlineLevel="1">
       <c r="A74" s="27" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
       <c r="B74" s="27" t="e"/>
       <c r="C74" s="28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D74" s="28" t="e"/>
       <c r="E74" s="27" t="s">
@@ -5342,17 +5356,19 @@
       <c r="O74" s="29" t="e"/>
       <c r="P74" s="30" t="e"/>
       <c r="Q74" s="27" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="R74" s="27" t="e"/>
       <c r="S74" s="27" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="T74" s="27" t="e"/>
-      <c r="U74" s="31" t="e"/>
-      <c r="V74" s="32" t="e"/>
+      <c r="U74" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="V74" s="33" t="e"/>
       <c r="W74" s="33" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="X74" s="33" t="e"/>
       <c r="Y74" s="33" t="s">
@@ -5382,11 +5398,11 @@
     </row>
     <row r="75" ht="13" customHeight="true" outlineLevel="1">
       <c r="A75" s="27" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B75" s="27" t="e"/>
       <c r="C75" s="28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D75" s="28" t="e"/>
       <c r="E75" s="27" t="s">
@@ -5410,17 +5426,19 @@
       <c r="O75" s="29" t="e"/>
       <c r="P75" s="30" t="e"/>
       <c r="Q75" s="27" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="R75" s="27" t="e"/>
-      <c r="S75" s="27" t="s">
-        <v>211</v>
-      </c>
-      <c r="T75" s="27" t="e"/>
-      <c r="U75" s="31" t="e"/>
-      <c r="V75" s="32" t="e"/>
+      <c r="S75" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="T75" s="34" t="e"/>
+      <c r="U75" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="V75" s="33" t="e"/>
       <c r="W75" s="33" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="X75" s="33" t="e"/>
       <c r="Y75" s="33" t="s">
@@ -5450,11 +5468,11 @@
     </row>
     <row r="76" ht="13" customHeight="true" outlineLevel="1">
       <c r="A76" s="27" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B76" s="27" t="e"/>
       <c r="C76" s="28" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D76" s="28" t="e"/>
       <c r="E76" s="27" t="s">
@@ -5478,19 +5496,17 @@
       <c r="O76" s="29" t="e"/>
       <c r="P76" s="30" t="e"/>
       <c r="Q76" s="27" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="R76" s="27" t="e"/>
       <c r="S76" s="27" t="s">
-        <v>215</v>
+        <v>57</v>
       </c>
       <c r="T76" s="27" t="e"/>
-      <c r="U76" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="V76" s="33" t="e"/>
+      <c r="U76" s="31" t="e"/>
+      <c r="V76" s="32" t="e"/>
       <c r="W76" s="33" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="X76" s="33" t="e"/>
       <c r="Y76" s="33" t="s">
@@ -5520,11 +5536,11 @@
     </row>
     <row r="77" ht="13" customHeight="true" outlineLevel="1">
       <c r="A77" s="27" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="B77" s="27" t="e"/>
       <c r="C77" s="28" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D77" s="28" t="e"/>
       <c r="E77" s="27" t="s">
@@ -5548,17 +5564,19 @@
       <c r="O77" s="29" t="e"/>
       <c r="P77" s="30" t="e"/>
       <c r="Q77" s="27" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="R77" s="27" t="e"/>
       <c r="S77" s="27" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="T77" s="27" t="e"/>
-      <c r="U77" s="31" t="e"/>
-      <c r="V77" s="32" t="e"/>
+      <c r="U77" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="V77" s="33" t="e"/>
       <c r="W77" s="33" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="X77" s="33" t="e"/>
       <c r="Y77" s="33" t="s">
@@ -5588,11 +5606,11 @@
     </row>
     <row r="78" ht="13" customHeight="true" outlineLevel="1">
       <c r="A78" s="27" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B78" s="27" t="e"/>
       <c r="C78" s="28" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D78" s="28" t="e"/>
       <c r="E78" s="27" t="s">
@@ -5616,17 +5634,17 @@
       <c r="O78" s="29" t="e"/>
       <c r="P78" s="30" t="e"/>
       <c r="Q78" s="27" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="R78" s="27" t="e"/>
       <c r="S78" s="27" t="s">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="T78" s="27" t="e"/>
       <c r="U78" s="31" t="e"/>
       <c r="V78" s="32" t="e"/>
       <c r="W78" s="33" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="X78" s="33" t="e"/>
       <c r="Y78" s="33" t="s">
@@ -5656,11 +5674,11 @@
     </row>
     <row r="79" ht="13" customHeight="true" outlineLevel="1">
       <c r="A79" s="27" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="B79" s="27" t="e"/>
       <c r="C79" s="28" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D79" s="28" t="e"/>
       <c r="E79" s="27" t="s">
@@ -5684,19 +5702,17 @@
       <c r="O79" s="29" t="e"/>
       <c r="P79" s="30" t="e"/>
       <c r="Q79" s="27" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="R79" s="27" t="e"/>
       <c r="S79" s="27" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="T79" s="27" t="e"/>
-      <c r="U79" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="V79" s="33" t="e"/>
+      <c r="U79" s="31" t="e"/>
+      <c r="V79" s="32" t="e"/>
       <c r="W79" s="33" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="X79" s="33" t="e"/>
       <c r="Y79" s="33" t="s">
@@ -5726,11 +5742,11 @@
     </row>
     <row r="80" ht="13" customHeight="true" outlineLevel="1">
       <c r="A80" s="27" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="B80" s="27" t="e"/>
       <c r="C80" s="28" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D80" s="28" t="e"/>
       <c r="E80" s="27" t="s">
@@ -5754,17 +5770,17 @@
       <c r="O80" s="29" t="e"/>
       <c r="P80" s="30" t="e"/>
       <c r="Q80" s="27" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="R80" s="27" t="e"/>
       <c r="S80" s="27" t="s">
-        <v>178</v>
+        <v>219</v>
       </c>
       <c r="T80" s="27" t="e"/>
       <c r="U80" s="31" t="e"/>
       <c r="V80" s="32" t="e"/>
       <c r="W80" s="33" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="X80" s="33" t="e"/>
       <c r="Y80" s="33" t="s">
@@ -5776,7 +5792,7 @@
       </c>
       <c r="AB80" s="33" t="e"/>
       <c r="AC80" s="33" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="AD80" s="33" t="e"/>
       <c r="AE80" s="33" t="s">
@@ -5794,11 +5810,11 @@
     </row>
     <row r="81" ht="13" customHeight="true" outlineLevel="1">
       <c r="A81" s="27" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B81" s="27" t="e"/>
       <c r="C81" s="28" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D81" s="28" t="e"/>
       <c r="E81" s="27" t="s">
@@ -5822,17 +5838,17 @@
       <c r="O81" s="29" t="e"/>
       <c r="P81" s="30" t="e"/>
       <c r="Q81" s="27" t="s">
-        <v>168</v>
+        <v>214</v>
       </c>
       <c r="R81" s="27" t="e"/>
       <c r="S81" s="27" t="s">
-        <v>215</v>
+        <v>149</v>
       </c>
       <c r="T81" s="27" t="e"/>
       <c r="U81" s="31" t="e"/>
       <c r="V81" s="32" t="e"/>
       <c r="W81" s="33" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="X81" s="33" t="e"/>
       <c r="Y81" s="33" t="s">
@@ -5862,11 +5878,11 @@
     </row>
     <row r="82" ht="13" customHeight="true" outlineLevel="1">
       <c r="A82" s="27" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B82" s="27" t="e"/>
       <c r="C82" s="28" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D82" s="28" t="e"/>
       <c r="E82" s="27" t="s">
@@ -5890,17 +5906,19 @@
       <c r="O82" s="29" t="e"/>
       <c r="P82" s="30" t="e"/>
       <c r="Q82" s="27" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="R82" s="27" t="e"/>
       <c r="S82" s="27" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="T82" s="27" t="e"/>
-      <c r="U82" s="31" t="e"/>
-      <c r="V82" s="32" t="e"/>
+      <c r="U82" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="V82" s="33" t="e"/>
       <c r="W82" s="33" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="X82" s="33" t="e"/>
       <c r="Y82" s="33" t="s">
@@ -5930,11 +5948,11 @@
     </row>
     <row r="83" ht="13" customHeight="true" outlineLevel="1">
       <c r="A83" s="27" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="B83" s="27" t="e"/>
       <c r="C83" s="28" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D83" s="28" t="e"/>
       <c r="E83" s="27" t="s">
@@ -5958,17 +5976,17 @@
       <c r="O83" s="29" t="e"/>
       <c r="P83" s="30" t="e"/>
       <c r="Q83" s="27" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
       <c r="R83" s="27" t="e"/>
       <c r="S83" s="27" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="T83" s="27" t="e"/>
       <c r="U83" s="31" t="e"/>
       <c r="V83" s="32" t="e"/>
       <c r="W83" s="33" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="X83" s="33" t="e"/>
       <c r="Y83" s="33" t="s">
@@ -5998,11 +6016,11 @@
     </row>
     <row r="84" ht="13" customHeight="true" outlineLevel="1">
       <c r="A84" s="27" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="B84" s="27" t="e"/>
       <c r="C84" s="28" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D84" s="28" t="e"/>
       <c r="E84" s="27" t="s">
@@ -6026,17 +6044,17 @@
       <c r="O84" s="29" t="e"/>
       <c r="P84" s="30" t="e"/>
       <c r="Q84" s="27" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="R84" s="27" t="e"/>
       <c r="S84" s="27" t="s">
-        <v>179</v>
+        <v>219</v>
       </c>
       <c r="T84" s="27" t="e"/>
       <c r="U84" s="31" t="e"/>
       <c r="V84" s="32" t="e"/>
       <c r="W84" s="33" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="X84" s="33" t="e"/>
       <c r="Y84" s="33" t="s">
@@ -6048,7 +6066,7 @@
       </c>
       <c r="AB84" s="33" t="e"/>
       <c r="AC84" s="33" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="AD84" s="33" t="e"/>
       <c r="AE84" s="33" t="s">
@@ -6066,11 +6084,11 @@
     </row>
     <row r="85" ht="13" customHeight="true" outlineLevel="1">
       <c r="A85" s="27" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B85" s="27" t="e"/>
       <c r="C85" s="28" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D85" s="28" t="e"/>
       <c r="E85" s="27" t="s">
@@ -6093,18 +6111,18 @@
       <c r="N85" s="30" t="e"/>
       <c r="O85" s="29" t="e"/>
       <c r="P85" s="30" t="e"/>
-      <c r="Q85" s="29" t="e"/>
-      <c r="R85" s="30" t="e"/>
-      <c r="S85" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="T85" s="27" t="e"/>
-      <c r="U85" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="V85" s="33" t="e"/>
+      <c r="Q85" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="R85" s="34" t="e"/>
+      <c r="S85" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="T85" s="34" t="e"/>
+      <c r="U85" s="31" t="e"/>
+      <c r="V85" s="32" t="e"/>
       <c r="W85" s="33" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="X85" s="33" t="e"/>
       <c r="Y85" s="33" t="s">
@@ -6134,11 +6152,11 @@
     </row>
     <row r="86" ht="13" customHeight="true" outlineLevel="1">
       <c r="A86" s="27" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="B86" s="27" t="e"/>
       <c r="C86" s="28" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D86" s="28" t="e"/>
       <c r="E86" s="27" t="s">
@@ -6161,16 +6179,20 @@
       <c r="N86" s="30" t="e"/>
       <c r="O86" s="29" t="e"/>
       <c r="P86" s="30" t="e"/>
-      <c r="Q86" s="29" t="e"/>
-      <c r="R86" s="30" t="e"/>
+      <c r="Q86" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="R86" s="27" t="e"/>
       <c r="S86" s="27" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="T86" s="27" t="e"/>
-      <c r="U86" s="31" t="e"/>
-      <c r="V86" s="32" t="e"/>
+      <c r="U86" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="V86" s="33" t="e"/>
       <c r="W86" s="33" t="s">
-        <v>42</v>
+        <v>232</v>
       </c>
       <c r="X86" s="33" t="e"/>
       <c r="Y86" s="33" t="s">
@@ -6200,11 +6222,11 @@
     </row>
     <row r="87" ht="13" customHeight="true" outlineLevel="1">
       <c r="A87" s="27" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B87" s="27" t="e"/>
       <c r="C87" s="28" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D87" s="28" t="e"/>
       <c r="E87" s="27" t="s">
@@ -6227,16 +6249,18 @@
       <c r="N87" s="30" t="e"/>
       <c r="O87" s="29" t="e"/>
       <c r="P87" s="30" t="e"/>
-      <c r="Q87" s="29" t="e"/>
-      <c r="R87" s="30" t="e"/>
+      <c r="Q87" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="R87" s="27" t="e"/>
       <c r="S87" s="27" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="T87" s="27" t="e"/>
       <c r="U87" s="31" t="e"/>
       <c r="V87" s="32" t="e"/>
       <c r="W87" s="33" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="X87" s="33" t="e"/>
       <c r="Y87" s="33" t="s">
@@ -6248,7 +6272,7 @@
       </c>
       <c r="AB87" s="33" t="e"/>
       <c r="AC87" s="33" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="AD87" s="33" t="e"/>
       <c r="AE87" s="33" t="s">
@@ -6266,11 +6290,11 @@
     </row>
     <row r="88" ht="13" customHeight="true" outlineLevel="1">
       <c r="A88" s="27" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="B88" s="27" t="e"/>
       <c r="C88" s="28" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D88" s="28" t="e"/>
       <c r="E88" s="27" t="s">
@@ -6293,16 +6317,18 @@
       <c r="N88" s="30" t="e"/>
       <c r="O88" s="29" t="e"/>
       <c r="P88" s="30" t="e"/>
-      <c r="Q88" s="29" t="e"/>
-      <c r="R88" s="30" t="e"/>
-      <c r="S88" s="29" t="e"/>
-      <c r="T88" s="30" t="e"/>
-      <c r="U88" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="V88" s="33" t="e"/>
+      <c r="Q88" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="R88" s="34" t="e"/>
+      <c r="S88" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="T88" s="34" t="e"/>
+      <c r="U88" s="31" t="e"/>
+      <c r="V88" s="32" t="e"/>
       <c r="W88" s="33" t="s">
-        <v>44</v>
+        <v>235</v>
       </c>
       <c r="X88" s="33" t="e"/>
       <c r="Y88" s="33" t="s">
@@ -6318,7 +6344,7 @@
       </c>
       <c r="AD88" s="33" t="e"/>
       <c r="AE88" s="33" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="AF88" s="33" t="e"/>
       <c r="AG88" s="33" t="s">
@@ -6332,11 +6358,11 @@
     </row>
     <row r="89" ht="13" customHeight="true" outlineLevel="1">
       <c r="A89" s="27" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="B89" s="27" t="e"/>
       <c r="C89" s="28" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D89" s="28" t="e"/>
       <c r="E89" s="27" t="s">
@@ -6359,14 +6385,20 @@
       <c r="N89" s="30" t="e"/>
       <c r="O89" s="29" t="e"/>
       <c r="P89" s="30" t="e"/>
-      <c r="Q89" s="29" t="e"/>
-      <c r="R89" s="30" t="e"/>
-      <c r="S89" s="29" t="e"/>
-      <c r="T89" s="30" t="e"/>
+      <c r="Q89" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="R89" s="27" t="e"/>
+      <c r="S89" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="T89" s="27" t="e"/>
       <c r="U89" s="31" t="e"/>
       <c r="V89" s="32" t="e"/>
-      <c r="W89" s="31" t="e"/>
-      <c r="X89" s="32" t="e"/>
+      <c r="W89" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="X89" s="33" t="e"/>
       <c r="Y89" s="33" t="s">
         <v>34</v>
       </c>
@@ -6394,11 +6426,11 @@
     </row>
     <row r="90" ht="13" customHeight="true" outlineLevel="1">
       <c r="A90" s="27" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B90" s="27" t="e"/>
       <c r="C90" s="28" t="s">
-        <v>97</v>
+        <v>239</v>
       </c>
       <c r="D90" s="28" t="e"/>
       <c r="E90" s="27" t="s">
@@ -6421,14 +6453,20 @@
       <c r="N90" s="30" t="e"/>
       <c r="O90" s="29" t="e"/>
       <c r="P90" s="30" t="e"/>
-      <c r="Q90" s="29" t="e"/>
-      <c r="R90" s="30" t="e"/>
-      <c r="S90" s="29" t="e"/>
-      <c r="T90" s="30" t="e"/>
+      <c r="Q90" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="R90" s="27" t="e"/>
+      <c r="S90" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="T90" s="27" t="e"/>
       <c r="U90" s="31" t="e"/>
       <c r="V90" s="32" t="e"/>
-      <c r="W90" s="31" t="e"/>
-      <c r="X90" s="32" t="e"/>
+      <c r="W90" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="X90" s="33" t="e"/>
       <c r="Y90" s="33" t="s">
         <v>34</v>
       </c>
@@ -6483,14 +6521,20 @@
       <c r="N91" s="30" t="e"/>
       <c r="O91" s="29" t="e"/>
       <c r="P91" s="30" t="e"/>
-      <c r="Q91" s="29" t="e"/>
-      <c r="R91" s="30" t="e"/>
-      <c r="S91" s="29" t="e"/>
-      <c r="T91" s="30" t="e"/>
+      <c r="Q91" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="R91" s="27" t="e"/>
+      <c r="S91" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="T91" s="27" t="e"/>
       <c r="U91" s="31" t="e"/>
       <c r="V91" s="32" t="e"/>
-      <c r="W91" s="31" t="e"/>
-      <c r="X91" s="32" t="e"/>
+      <c r="W91" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="X91" s="33" t="e"/>
       <c r="Y91" s="33" t="s">
         <v>34</v>
       </c>
@@ -6518,11 +6562,11 @@
     </row>
     <row r="92" ht="13" customHeight="true" outlineLevel="1">
       <c r="A92" s="27" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B92" s="27" t="e"/>
       <c r="C92" s="28" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D92" s="28" t="e"/>
       <c r="E92" s="27" t="s">
@@ -6547,12 +6591,18 @@
       <c r="P92" s="30" t="e"/>
       <c r="Q92" s="29" t="e"/>
       <c r="R92" s="30" t="e"/>
-      <c r="S92" s="29" t="e"/>
-      <c r="T92" s="30" t="e"/>
-      <c r="U92" s="31" t="e"/>
-      <c r="V92" s="32" t="e"/>
-      <c r="W92" s="31" t="e"/>
-      <c r="X92" s="32" t="e"/>
+      <c r="S92" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="T92" s="27" t="e"/>
+      <c r="U92" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="V92" s="33" t="e"/>
+      <c r="W92" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="X92" s="33" t="e"/>
       <c r="Y92" s="33" t="s">
         <v>34</v>
       </c>
@@ -6580,11 +6630,11 @@
     </row>
     <row r="93" ht="13" customHeight="true" outlineLevel="1">
       <c r="A93" s="27" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="B93" s="27" t="e"/>
       <c r="C93" s="28" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D93" s="28" t="e"/>
       <c r="E93" s="27" t="s">
@@ -6609,12 +6659,16 @@
       <c r="P93" s="30" t="e"/>
       <c r="Q93" s="29" t="e"/>
       <c r="R93" s="30" t="e"/>
-      <c r="S93" s="29" t="e"/>
-      <c r="T93" s="30" t="e"/>
+      <c r="S93" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="T93" s="27" t="e"/>
       <c r="U93" s="31" t="e"/>
       <c r="V93" s="32" t="e"/>
-      <c r="W93" s="31" t="e"/>
-      <c r="X93" s="32" t="e"/>
+      <c r="W93" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="X93" s="33" t="e"/>
       <c r="Y93" s="33" t="s">
         <v>34</v>
       </c>
@@ -6642,11 +6696,11 @@
     </row>
     <row r="94" ht="13" customHeight="true" outlineLevel="1">
       <c r="A94" s="27" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94" s="27" t="e"/>
       <c r="C94" s="28" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D94" s="28" t="e"/>
       <c r="E94" s="27" t="s">
@@ -6669,14 +6723,20 @@
       <c r="N94" s="30" t="e"/>
       <c r="O94" s="29" t="e"/>
       <c r="P94" s="30" t="e"/>
-      <c r="Q94" s="29" t="e"/>
-      <c r="R94" s="30" t="e"/>
-      <c r="S94" s="29" t="e"/>
-      <c r="T94" s="30" t="e"/>
+      <c r="Q94" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="R94" s="34" t="e"/>
+      <c r="S94" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="T94" s="34" t="e"/>
       <c r="U94" s="31" t="e"/>
       <c r="V94" s="32" t="e"/>
-      <c r="W94" s="31" t="e"/>
-      <c r="X94" s="32" t="e"/>
+      <c r="W94" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="X94" s="33" t="e"/>
       <c r="Y94" s="33" t="s">
         <v>34</v>
       </c>
@@ -6704,11 +6764,11 @@
     </row>
     <row r="95" ht="13" customHeight="true" outlineLevel="1">
       <c r="A95" s="27" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B95" s="27" t="e"/>
       <c r="C95" s="28" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D95" s="28" t="e"/>
       <c r="E95" s="27" t="s">
@@ -6735,10 +6795,14 @@
       <c r="R95" s="30" t="e"/>
       <c r="S95" s="29" t="e"/>
       <c r="T95" s="30" t="e"/>
-      <c r="U95" s="31" t="e"/>
-      <c r="V95" s="32" t="e"/>
-      <c r="W95" s="31" t="e"/>
-      <c r="X95" s="32" t="e"/>
+      <c r="U95" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="V95" s="33" t="e"/>
+      <c r="W95" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="X95" s="33" t="e"/>
       <c r="Y95" s="33" t="s">
         <v>34</v>
       </c>
@@ -6752,7 +6816,7 @@
       </c>
       <c r="AD95" s="33" t="e"/>
       <c r="AE95" s="33" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="AF95" s="33" t="e"/>
       <c r="AG95" s="33" t="s">
@@ -6766,11 +6830,11 @@
     </row>
     <row r="96" ht="13" customHeight="true" outlineLevel="1">
       <c r="A96" s="27" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B96" s="27" t="e"/>
       <c r="C96" s="28" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D96" s="28" t="e"/>
       <c r="E96" s="27" t="s">
@@ -6793,10 +6857,10 @@
       <c r="N96" s="30" t="e"/>
       <c r="O96" s="29" t="e"/>
       <c r="P96" s="30" t="e"/>
-      <c r="Q96" s="29" t="e"/>
-      <c r="R96" s="30" t="e"/>
-      <c r="S96" s="29" t="e"/>
-      <c r="T96" s="30" t="e"/>
+      <c r="Q96" s="35" t="e"/>
+      <c r="R96" s="36" t="e"/>
+      <c r="S96" s="35" t="e"/>
+      <c r="T96" s="36" t="e"/>
       <c r="U96" s="31" t="e"/>
       <c r="V96" s="32" t="e"/>
       <c r="W96" s="31" t="e"/>
@@ -6828,11 +6892,11 @@
     </row>
     <row r="97" ht="13" customHeight="true" outlineLevel="1">
       <c r="A97" s="27" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B97" s="27" t="e"/>
       <c r="C97" s="28" t="s">
-        <v>250</v>
+        <v>95</v>
       </c>
       <c r="D97" s="28" t="e"/>
       <c r="E97" s="27" t="s">
@@ -6855,10 +6919,10 @@
       <c r="N97" s="30" t="e"/>
       <c r="O97" s="29" t="e"/>
       <c r="P97" s="30" t="e"/>
-      <c r="Q97" s="29" t="e"/>
-      <c r="R97" s="30" t="e"/>
-      <c r="S97" s="29" t="e"/>
-      <c r="T97" s="30" t="e"/>
+      <c r="Q97" s="35" t="e"/>
+      <c r="R97" s="36" t="e"/>
+      <c r="S97" s="35" t="e"/>
+      <c r="T97" s="36" t="e"/>
       <c r="U97" s="31" t="e"/>
       <c r="V97" s="32" t="e"/>
       <c r="W97" s="31" t="e"/>
@@ -6950,9 +7014,133 @@
       </c>
       <c r="AJ98" s="33" t="e"/>
     </row>
-    <row r="99" ht="10" customHeight="true" s="1" customFormat="true"/>
+    <row r="99" ht="13" customHeight="true" outlineLevel="1">
+      <c r="A99" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B99" s="27" t="e"/>
+      <c r="C99" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="D99" s="28" t="e"/>
+      <c r="E99" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F99" s="27" t="e"/>
+      <c r="G99" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H99" s="27" t="e"/>
+      <c r="I99" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J99" s="27" t="e"/>
+      <c r="K99" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L99" s="27" t="e"/>
+      <c r="M99" s="29" t="e"/>
+      <c r="N99" s="30" t="e"/>
+      <c r="O99" s="29" t="e"/>
+      <c r="P99" s="30" t="e"/>
+      <c r="Q99" s="29" t="e"/>
+      <c r="R99" s="30" t="e"/>
+      <c r="S99" s="29" t="e"/>
+      <c r="T99" s="30" t="e"/>
+      <c r="U99" s="31" t="e"/>
+      <c r="V99" s="32" t="e"/>
+      <c r="W99" s="31" t="e"/>
+      <c r="X99" s="32" t="e"/>
+      <c r="Y99" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z99" s="33" t="e"/>
+      <c r="AA99" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB99" s="33" t="e"/>
+      <c r="AC99" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD99" s="33" t="e"/>
+      <c r="AE99" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF99" s="33" t="e"/>
+      <c r="AG99" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH99" s="33" t="e"/>
+      <c r="AI99" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ99" s="33" t="e"/>
+    </row>
+    <row r="100" ht="13" customHeight="true" outlineLevel="1">
+      <c r="A100" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="B100" s="27" t="e"/>
+      <c r="C100" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="D100" s="28" t="e"/>
+      <c r="E100" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F100" s="27" t="e"/>
+      <c r="G100" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H100" s="27" t="e"/>
+      <c r="I100" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J100" s="27" t="e"/>
+      <c r="K100" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L100" s="27" t="e"/>
+      <c r="M100" s="29" t="e"/>
+      <c r="N100" s="30" t="e"/>
+      <c r="O100" s="29" t="e"/>
+      <c r="P100" s="30" t="e"/>
+      <c r="Q100" s="29" t="e"/>
+      <c r="R100" s="30" t="e"/>
+      <c r="S100" s="29" t="e"/>
+      <c r="T100" s="30" t="e"/>
+      <c r="U100" s="31" t="e"/>
+      <c r="V100" s="32" t="e"/>
+      <c r="W100" s="31" t="e"/>
+      <c r="X100" s="32" t="e"/>
+      <c r="Y100" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z100" s="33" t="e"/>
+      <c r="AA100" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB100" s="33" t="e"/>
+      <c r="AC100" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD100" s="33" t="e"/>
+      <c r="AE100" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF100" s="33" t="e"/>
+      <c r="AG100" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH100" s="33" t="e"/>
+      <c r="AI100" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ100" s="33" t="e"/>
+    </row>
+    <row r="101" ht="10" customHeight="true" s="1" customFormat="true"/>
   </sheetData>
-  <mergeCells count="1224">
+  <mergeCells count="1271">
     <mergeCell ref="C2:R2"/>
     <mergeCell ref="C3:R3"/>
     <mergeCell ref="C4:R4"/>
@@ -7124,7 +7312,6 @@
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="Q27:R27"/>
     <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:V27"/>
     <mergeCell ref="W27:X27"/>
     <mergeCell ref="Y27:Z27"/>
     <mergeCell ref="AA27:AB27"/>
@@ -7156,6 +7343,7 @@
     <mergeCell ref="K29:L29"/>
     <mergeCell ref="Q29:R29"/>
     <mergeCell ref="S29:T29"/>
+    <mergeCell ref="U29:V29"/>
     <mergeCell ref="W29:X29"/>
     <mergeCell ref="Y29:Z29"/>
     <mergeCell ref="AA29:AB29"/>
@@ -7246,7 +7434,6 @@
     <mergeCell ref="K35:L35"/>
     <mergeCell ref="Q35:R35"/>
     <mergeCell ref="S35:T35"/>
-    <mergeCell ref="U35:V35"/>
     <mergeCell ref="W35:X35"/>
     <mergeCell ref="Y35:Z35"/>
     <mergeCell ref="AA35:AB35"/>
@@ -7262,6 +7449,7 @@
     <mergeCell ref="K36:L36"/>
     <mergeCell ref="Q36:R36"/>
     <mergeCell ref="S36:T36"/>
+    <mergeCell ref="U36:V36"/>
     <mergeCell ref="W36:X36"/>
     <mergeCell ref="Y36:Z36"/>
     <mergeCell ref="AA36:AB36"/>
@@ -7412,7 +7600,6 @@
     <mergeCell ref="K46:L46"/>
     <mergeCell ref="Q46:R46"/>
     <mergeCell ref="S46:T46"/>
-    <mergeCell ref="U46:V46"/>
     <mergeCell ref="W46:X46"/>
     <mergeCell ref="Y46:Z46"/>
     <mergeCell ref="AA46:AB46"/>
@@ -7428,7 +7615,6 @@
     <mergeCell ref="K47:L47"/>
     <mergeCell ref="Q47:R47"/>
     <mergeCell ref="S47:T47"/>
-    <mergeCell ref="U47:V47"/>
     <mergeCell ref="W47:X47"/>
     <mergeCell ref="Y47:Z47"/>
     <mergeCell ref="AA47:AB47"/>
@@ -7476,6 +7662,7 @@
     <mergeCell ref="K50:L50"/>
     <mergeCell ref="Q50:R50"/>
     <mergeCell ref="S50:T50"/>
+    <mergeCell ref="U50:V50"/>
     <mergeCell ref="W50:X50"/>
     <mergeCell ref="Y50:Z50"/>
     <mergeCell ref="AA50:AB50"/>
@@ -7491,6 +7678,7 @@
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="Q51:R51"/>
     <mergeCell ref="S51:T51"/>
+    <mergeCell ref="U51:V51"/>
     <mergeCell ref="W51:X51"/>
     <mergeCell ref="Y51:Z51"/>
     <mergeCell ref="AA51:AB51"/>
@@ -7521,7 +7709,6 @@
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="Q53:R53"/>
     <mergeCell ref="S53:T53"/>
-    <mergeCell ref="U53:V53"/>
     <mergeCell ref="W53:X53"/>
     <mergeCell ref="Y53:Z53"/>
     <mergeCell ref="AA53:AB53"/>
@@ -7552,7 +7739,6 @@
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="Q55:R55"/>
     <mergeCell ref="S55:T55"/>
-    <mergeCell ref="U55:V55"/>
     <mergeCell ref="W55:X55"/>
     <mergeCell ref="Y55:Z55"/>
     <mergeCell ref="AA55:AB55"/>
@@ -7568,7 +7754,6 @@
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="Q56:R56"/>
     <mergeCell ref="S56:T56"/>
-    <mergeCell ref="U56:V56"/>
     <mergeCell ref="W56:X56"/>
     <mergeCell ref="Y56:Z56"/>
     <mergeCell ref="AA56:AB56"/>
@@ -7584,6 +7769,7 @@
     <mergeCell ref="K57:L57"/>
     <mergeCell ref="Q57:R57"/>
     <mergeCell ref="S57:T57"/>
+    <mergeCell ref="U57:V57"/>
     <mergeCell ref="W57:X57"/>
     <mergeCell ref="Y57:Z57"/>
     <mergeCell ref="AA57:AB57"/>
@@ -7614,6 +7800,7 @@
     <mergeCell ref="K59:L59"/>
     <mergeCell ref="Q59:R59"/>
     <mergeCell ref="S59:T59"/>
+    <mergeCell ref="U59:V59"/>
     <mergeCell ref="W59:X59"/>
     <mergeCell ref="Y59:Z59"/>
     <mergeCell ref="AA59:AB59"/>
@@ -7644,6 +7831,7 @@
     <mergeCell ref="K61:L61"/>
     <mergeCell ref="Q61:R61"/>
     <mergeCell ref="S61:T61"/>
+    <mergeCell ref="U61:V61"/>
     <mergeCell ref="W61:X61"/>
     <mergeCell ref="Y61:Z61"/>
     <mergeCell ref="AA61:AB61"/>
@@ -7764,7 +7952,6 @@
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q69:R69"/>
     <mergeCell ref="S69:T69"/>
-    <mergeCell ref="U69:V69"/>
     <mergeCell ref="W69:X69"/>
     <mergeCell ref="Y69:Z69"/>
     <mergeCell ref="AA69:AB69"/>
@@ -7795,7 +7982,6 @@
     <mergeCell ref="K71:L71"/>
     <mergeCell ref="Q71:R71"/>
     <mergeCell ref="S71:T71"/>
-    <mergeCell ref="U71:V71"/>
     <mergeCell ref="W71:X71"/>
     <mergeCell ref="Y71:Z71"/>
     <mergeCell ref="AA71:AB71"/>
@@ -7841,6 +8027,7 @@
     <mergeCell ref="K74:L74"/>
     <mergeCell ref="Q74:R74"/>
     <mergeCell ref="S74:T74"/>
+    <mergeCell ref="U74:V74"/>
     <mergeCell ref="W74:X74"/>
     <mergeCell ref="Y74:Z74"/>
     <mergeCell ref="AA74:AB74"/>
@@ -7856,6 +8043,7 @@
     <mergeCell ref="K75:L75"/>
     <mergeCell ref="Q75:R75"/>
     <mergeCell ref="S75:T75"/>
+    <mergeCell ref="U75:V75"/>
     <mergeCell ref="W75:X75"/>
     <mergeCell ref="Y75:Z75"/>
     <mergeCell ref="AA75:AB75"/>
@@ -7871,7 +8059,6 @@
     <mergeCell ref="K76:L76"/>
     <mergeCell ref="Q76:R76"/>
     <mergeCell ref="S76:T76"/>
-    <mergeCell ref="U76:V76"/>
     <mergeCell ref="W76:X76"/>
     <mergeCell ref="Y76:Z76"/>
     <mergeCell ref="AA76:AB76"/>
@@ -7887,6 +8074,7 @@
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q77:R77"/>
     <mergeCell ref="S77:T77"/>
+    <mergeCell ref="U77:V77"/>
     <mergeCell ref="W77:X77"/>
     <mergeCell ref="Y77:Z77"/>
     <mergeCell ref="AA77:AB77"/>
@@ -7917,7 +8105,6 @@
     <mergeCell ref="K79:L79"/>
     <mergeCell ref="Q79:R79"/>
     <mergeCell ref="S79:T79"/>
-    <mergeCell ref="U79:V79"/>
     <mergeCell ref="W79:X79"/>
     <mergeCell ref="Y79:Z79"/>
     <mergeCell ref="AA79:AB79"/>
@@ -7963,6 +8150,7 @@
     <mergeCell ref="K82:L82"/>
     <mergeCell ref="Q82:R82"/>
     <mergeCell ref="S82:T82"/>
+    <mergeCell ref="U82:V82"/>
     <mergeCell ref="W82:X82"/>
     <mergeCell ref="Y82:Z82"/>
     <mergeCell ref="AA82:AB82"/>
@@ -8006,8 +8194,8 @@
     <mergeCell ref="G85:H85"/>
     <mergeCell ref="I85:J85"/>
     <mergeCell ref="K85:L85"/>
+    <mergeCell ref="Q85:R85"/>
     <mergeCell ref="S85:T85"/>
-    <mergeCell ref="U85:V85"/>
     <mergeCell ref="W85:X85"/>
     <mergeCell ref="Y85:Z85"/>
     <mergeCell ref="AA85:AB85"/>
@@ -8021,7 +8209,9 @@
     <mergeCell ref="G86:H86"/>
     <mergeCell ref="I86:J86"/>
     <mergeCell ref="K86:L86"/>
+    <mergeCell ref="Q86:R86"/>
     <mergeCell ref="S86:T86"/>
+    <mergeCell ref="U86:V86"/>
     <mergeCell ref="W86:X86"/>
     <mergeCell ref="Y86:Z86"/>
     <mergeCell ref="AA86:AB86"/>
@@ -8035,6 +8225,7 @@
     <mergeCell ref="G87:H87"/>
     <mergeCell ref="I87:J87"/>
     <mergeCell ref="K87:L87"/>
+    <mergeCell ref="Q87:R87"/>
     <mergeCell ref="S87:T87"/>
     <mergeCell ref="W87:X87"/>
     <mergeCell ref="Y87:Z87"/>
@@ -8049,7 +8240,8 @@
     <mergeCell ref="G88:H88"/>
     <mergeCell ref="I88:J88"/>
     <mergeCell ref="K88:L88"/>
-    <mergeCell ref="U88:V88"/>
+    <mergeCell ref="Q88:R88"/>
+    <mergeCell ref="S88:T88"/>
     <mergeCell ref="W88:X88"/>
     <mergeCell ref="Y88:Z88"/>
     <mergeCell ref="AA88:AB88"/>
@@ -8063,6 +8255,9 @@
     <mergeCell ref="G89:H89"/>
     <mergeCell ref="I89:J89"/>
     <mergeCell ref="K89:L89"/>
+    <mergeCell ref="Q89:R89"/>
+    <mergeCell ref="S89:T89"/>
+    <mergeCell ref="W89:X89"/>
     <mergeCell ref="Y89:Z89"/>
     <mergeCell ref="AA89:AB89"/>
     <mergeCell ref="AC89:AD89"/>
@@ -8075,6 +8270,9 @@
     <mergeCell ref="G90:H90"/>
     <mergeCell ref="I90:J90"/>
     <mergeCell ref="K90:L90"/>
+    <mergeCell ref="Q90:R90"/>
+    <mergeCell ref="S90:T90"/>
+    <mergeCell ref="W90:X90"/>
     <mergeCell ref="Y90:Z90"/>
     <mergeCell ref="AA90:AB90"/>
     <mergeCell ref="AC90:AD90"/>
@@ -8087,6 +8285,9 @@
     <mergeCell ref="G91:H91"/>
     <mergeCell ref="I91:J91"/>
     <mergeCell ref="K91:L91"/>
+    <mergeCell ref="Q91:R91"/>
+    <mergeCell ref="S91:T91"/>
+    <mergeCell ref="W91:X91"/>
     <mergeCell ref="Y91:Z91"/>
     <mergeCell ref="AA91:AB91"/>
     <mergeCell ref="AC91:AD91"/>
@@ -8099,6 +8300,9 @@
     <mergeCell ref="G92:H92"/>
     <mergeCell ref="I92:J92"/>
     <mergeCell ref="K92:L92"/>
+    <mergeCell ref="S92:T92"/>
+    <mergeCell ref="U92:V92"/>
+    <mergeCell ref="W92:X92"/>
     <mergeCell ref="Y92:Z92"/>
     <mergeCell ref="AA92:AB92"/>
     <mergeCell ref="AC92:AD92"/>
@@ -8111,6 +8315,8 @@
     <mergeCell ref="G93:H93"/>
     <mergeCell ref="I93:J93"/>
     <mergeCell ref="K93:L93"/>
+    <mergeCell ref="S93:T93"/>
+    <mergeCell ref="W93:X93"/>
     <mergeCell ref="Y93:Z93"/>
     <mergeCell ref="AA93:AB93"/>
     <mergeCell ref="AC93:AD93"/>
@@ -8123,6 +8329,9 @@
     <mergeCell ref="G94:H94"/>
     <mergeCell ref="I94:J94"/>
     <mergeCell ref="K94:L94"/>
+    <mergeCell ref="Q94:R94"/>
+    <mergeCell ref="S94:T94"/>
+    <mergeCell ref="W94:X94"/>
     <mergeCell ref="Y94:Z94"/>
     <mergeCell ref="AA94:AB94"/>
     <mergeCell ref="AC94:AD94"/>
@@ -8135,6 +8344,8 @@
     <mergeCell ref="G95:H95"/>
     <mergeCell ref="I95:J95"/>
     <mergeCell ref="K95:L95"/>
+    <mergeCell ref="U95:V95"/>
+    <mergeCell ref="W95:X95"/>
     <mergeCell ref="Y95:Z95"/>
     <mergeCell ref="AA95:AB95"/>
     <mergeCell ref="AC95:AD95"/>
@@ -8177,6 +8388,30 @@
     <mergeCell ref="AE98:AF98"/>
     <mergeCell ref="AG98:AH98"/>
     <mergeCell ref="AI98:AJ98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="I99:J99"/>
+    <mergeCell ref="K99:L99"/>
+    <mergeCell ref="Y99:Z99"/>
+    <mergeCell ref="AA99:AB99"/>
+    <mergeCell ref="AC99:AD99"/>
+    <mergeCell ref="AE99:AF99"/>
+    <mergeCell ref="AG99:AH99"/>
+    <mergeCell ref="AI99:AJ99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="I100:J100"/>
+    <mergeCell ref="K100:L100"/>
+    <mergeCell ref="Y100:Z100"/>
+    <mergeCell ref="AA100:AB100"/>
+    <mergeCell ref="AC100:AD100"/>
+    <mergeCell ref="AE100:AF100"/>
+    <mergeCell ref="AG100:AH100"/>
+    <mergeCell ref="AI100:AJ100"/>
   </mergeCells>
   <pageMargins left="0.393700787401574803149606299" top="0.393700787401574803149606299" right="0.393700787401574803149606299" bottom="0.393700787401574803149606299" header="0" footer="0"/>
   <pageSetup blackAndWhite="false" fitToHeight="0" fitToWidth="1" pageOrder="overThenDown" orientation="portrait"/>
